--- a/ProjetoPlanilhaFinanceira.xlsx
+++ b/ProjetoPlanilhaFinanceira.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FelipePC\Documents\CursoExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98EDD5E7-0BCA-44AA-8A99-56BA558BCBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE795A-2FD2-4097-9057-F7E3AD128EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D65208F-E365-4C34-AE49-52EDE92E9B96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fluxo Anual" sheetId="1" r:id="rId1"/>
+    <sheet name="Cartão de Crédito" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -161,7 +162,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +186,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -234,20 +252,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,6 +288,385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162735</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37870</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Gráfico 2" descr="Dinheiro com preenchimento sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD70E6F0-4C4D-11AC-B0CE-C8789BB1416A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2319617" y="605119"/>
+          <a:ext cx="284400" cy="284400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>736958</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>445606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gráfico 4" descr="Moedas estrutura de tópicos">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AADE374-2B28-DE4C-78A1-2F12A051DF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12259236" y="123266"/>
+          <a:ext cx="411987" cy="411987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>199148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gráfico 6" descr="Tendência ascendente com preenchimento sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7ECABE-9F46-84C8-CAE2-5A0FF742084D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2319617" y="5320236"/>
+          <a:ext cx="284400" cy="284400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>192265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37870</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Gráfico 8" descr="Gráfico de tendência descendente com preenchimento sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAD52E5-C0AA-ED56-1C54-D74E8CA97A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2319617" y="1951589"/>
+          <a:ext cx="284400" cy="284400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2162735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Gráfico 10" descr="Cartão de crédito com preenchimento sólido">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B294B3B-5393-64A6-094B-8E621233764E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2319617" y="3753971"/>
+          <a:ext cx="284400" cy="284400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6AE98F-2D9C-B413-C97C-3CF30183B13C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2438400" cy="1729047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>148</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124705</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Site Nubank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85212E3-0605-C10E-0142-DBB9BF4A2F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="26526" t="27215" r="26789" b="23648"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438548" y="0"/>
+          <a:ext cx="2562957" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,91 +966,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACFFEEE-B281-4BD6-9D9C-9F88F763EB14}">
-  <dimension ref="A1:AB113"/>
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:AC115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-    </row>
-    <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -659,56 +1013,49 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-    </row>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -723,24 +1070,48 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3000</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3000</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -755,24 +1126,24 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-    </row>
-    <row r="6" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -787,22 +1158,24 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-    </row>
-    <row r="7" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -817,24 +1190,60 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-    </row>
-    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <f>SUM(C5:C7)</f>
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:N8" si="0">SUM(D5:D7)</f>
+        <v>3000</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -849,24 +1258,22 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
-    </row>
-    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -881,24 +1288,24 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
-    </row>
-    <row r="10" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -913,24 +1320,46 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-    </row>
-    <row r="11" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>500</v>
+      </c>
+      <c r="D11" s="4">
+        <v>500</v>
+      </c>
+      <c r="E11" s="4">
+        <v>500</v>
+      </c>
+      <c r="F11" s="4">
+        <v>500</v>
+      </c>
+      <c r="G11" s="4">
+        <v>500</v>
+      </c>
+      <c r="H11" s="4">
+        <v>500</v>
+      </c>
+      <c r="I11" s="4">
+        <v>500</v>
+      </c>
+      <c r="J11" s="4">
+        <v>500</v>
+      </c>
+      <c r="K11" s="4">
+        <v>500</v>
+      </c>
+      <c r="L11" s="4">
+        <v>500</v>
+      </c>
+      <c r="M11" s="4">
+        <v>500</v>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -945,24 +1374,24 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
-    </row>
-    <row r="12" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="2"/>
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -977,24 +1406,24 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-    </row>
-    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="2"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1009,24 +1438,24 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-    </row>
-    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="2"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1041,24 +1470,24 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-    </row>
-    <row r="15" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1073,24 +1502,24 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="2"/>
+      <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1105,24 +1534,24 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="2"/>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1137,24 +1566,24 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="2"/>
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1169,24 +1598,24 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="2"/>
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1201,24 +1630,24 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1233,24 +1662,24 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1265,22 +1694,24 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1295,24 +1726,57 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUM(C11:C22)</f>
+        <v>500</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:M23" si="1">SUM(D11:D22)</f>
+        <v>500</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="N23" s="6"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1327,24 +1791,22 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1359,24 +1821,24 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1391,24 +1853,24 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="2"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1423,24 +1885,24 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="2"/>
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -1455,24 +1917,24 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-    </row>
-    <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="2"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1487,24 +1949,24 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-    </row>
-    <row r="29" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="2"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1519,24 +1981,48 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
-    </row>
-    <row r="30" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="2"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4">
+        <v>50</v>
+      </c>
+      <c r="F30" s="4">
+        <v>50</v>
+      </c>
+      <c r="G30" s="4">
+        <v>50</v>
+      </c>
+      <c r="H30" s="4">
+        <v>50</v>
+      </c>
+      <c r="I30" s="4">
+        <v>50</v>
+      </c>
+      <c r="J30" s="4">
+        <v>50</v>
+      </c>
+      <c r="K30" s="4">
+        <v>50</v>
+      </c>
+      <c r="L30" s="4">
+        <v>50</v>
+      </c>
+      <c r="M30" s="4">
+        <v>50</v>
+      </c>
+      <c r="N30" s="4">
+        <v>50</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -1551,24 +2037,24 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-    </row>
-    <row r="31" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -1583,22 +2069,24 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
-    </row>
-    <row r="32" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1613,22 +2101,60 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-    </row>
-    <row r="33" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="5">
+        <f>SUM(C26:C32)</f>
+        <v>50</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:N33" si="2">SUM(D26:D32)</f>
+        <v>50</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N33" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -1643,10 +2169,10 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-    </row>
-    <row r="34" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1673,10 +2199,10 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-    </row>
-    <row r="35" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1703,9 +2229,9 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-    </row>
-    <row r="36" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1733,9 +2259,9 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-    </row>
-    <row r="37" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1763,9 +2289,9 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-    </row>
-    <row r="38" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1793,9 +2319,9 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
-    </row>
-    <row r="39" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1823,9 +2349,9 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-    </row>
-    <row r="40" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1853,9 +2379,9 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-    </row>
-    <row r="41" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1883,9 +2409,9 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
-    </row>
-    <row r="42" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1913,9 +2439,9 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
-    </row>
-    <row r="43" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="AC42" s="2"/>
+    </row>
+    <row r="43" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1943,9 +2469,9 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
-    </row>
-    <row r="44" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1973,9 +2499,9 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-    </row>
-    <row r="45" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2003,9 +2529,9 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
-    </row>
-    <row r="46" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2033,9 +2559,9 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-    </row>
-    <row r="47" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2063,9 +2589,9 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
-    </row>
-    <row r="48" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2093,9 +2619,9 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
-    </row>
-    <row r="49" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="AC48" s="2"/>
+    </row>
+    <row r="49" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2123,9 +2649,9 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
-    </row>
-    <row r="50" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2153,9 +2679,9 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-    </row>
-    <row r="51" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2183,9 +2709,9 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-    </row>
-    <row r="52" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="AC51" s="2"/>
+    </row>
+    <row r="52" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2213,9 +2739,9 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
-    </row>
-    <row r="53" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="AC52" s="2"/>
+    </row>
+    <row r="53" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2243,9 +2769,9 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
-    </row>
-    <row r="54" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="AC53" s="2"/>
+    </row>
+    <row r="54" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2273,9 +2799,9 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
-    </row>
-    <row r="55" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2303,9 +2829,9 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
-    </row>
-    <row r="56" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2333,9 +2859,9 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
-    </row>
-    <row r="57" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2363,9 +2889,9 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
-    </row>
-    <row r="58" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="AC57" s="2"/>
+    </row>
+    <row r="58" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2393,9 +2919,9 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
-    </row>
-    <row r="59" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="AC58" s="2"/>
+    </row>
+    <row r="59" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2423,9 +2949,9 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
-    </row>
-    <row r="60" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="AC59" s="2"/>
+    </row>
+    <row r="60" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2453,9 +2979,9 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
-    </row>
-    <row r="61" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="AC60" s="2"/>
+    </row>
+    <row r="61" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2483,9 +3009,9 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
-    </row>
-    <row r="62" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="AC61" s="2"/>
+    </row>
+    <row r="62" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2513,9 +3039,9 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
-    </row>
-    <row r="63" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2543,9 +3069,9 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
-    </row>
-    <row r="64" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="AC63" s="2"/>
+    </row>
+    <row r="64" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2573,9 +3099,9 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
-    </row>
-    <row r="65" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="AC64" s="2"/>
+    </row>
+    <row r="65" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2603,9 +3129,9 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
-    </row>
-    <row r="66" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2633,9 +3159,9 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
-    </row>
-    <row r="67" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="AC66" s="2"/>
+    </row>
+    <row r="67" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2663,9 +3189,9 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
-    </row>
-    <row r="68" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="AC67" s="2"/>
+    </row>
+    <row r="68" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2693,9 +3219,9 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
-    </row>
-    <row r="69" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="69" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2723,9 +3249,9 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
-    </row>
-    <row r="70" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="AC69" s="2"/>
+    </row>
+    <row r="70" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2753,9 +3279,9 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
-    </row>
-    <row r="71" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="AC70" s="2"/>
+    </row>
+    <row r="71" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2783,9 +3309,9 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
-    </row>
-    <row r="72" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="AC71" s="2"/>
+    </row>
+    <row r="72" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2813,9 +3339,9 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
-    </row>
-    <row r="73" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="AC72" s="2"/>
+    </row>
+    <row r="73" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2843,9 +3369,9 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
-    </row>
-    <row r="74" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="AC73" s="2"/>
+    </row>
+    <row r="74" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2873,9 +3399,9 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
-    </row>
-    <row r="75" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="AC74" s="2"/>
+    </row>
+    <row r="75" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2903,9 +3429,9 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
-    </row>
-    <row r="76" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="AC75" s="2"/>
+    </row>
+    <row r="76" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2933,9 +3459,9 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-    </row>
-    <row r="77" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2963,9 +3489,9 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
-    </row>
-    <row r="78" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2993,9 +3519,9 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
-    </row>
-    <row r="79" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3023,9 +3549,9 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
-    </row>
-    <row r="80" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="AC79" s="2"/>
+    </row>
+    <row r="80" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3053,9 +3579,9 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
-    </row>
-    <row r="81" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="AC80" s="2"/>
+    </row>
+    <row r="81" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3083,9 +3609,9 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
-    </row>
-    <row r="82" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="AC81" s="2"/>
+    </row>
+    <row r="82" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3113,9 +3639,9 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
-    </row>
-    <row r="83" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="AC82" s="2"/>
+    </row>
+    <row r="83" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3143,9 +3669,9 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
-    </row>
-    <row r="84" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="AC83" s="2"/>
+    </row>
+    <row r="84" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3173,9 +3699,9 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
-    </row>
-    <row r="85" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="AC84" s="2"/>
+    </row>
+    <row r="85" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3203,9 +3729,9 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
-    </row>
-    <row r="86" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="AC85" s="2"/>
+    </row>
+    <row r="86" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3233,9 +3759,9 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
-    </row>
-    <row r="87" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="AC86" s="2"/>
+    </row>
+    <row r="87" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3263,9 +3789,9 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
-    </row>
-    <row r="88" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="AC87" s="2"/>
+    </row>
+    <row r="88" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3293,9 +3819,9 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
-    </row>
-    <row r="89" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="AC88" s="2"/>
+    </row>
+    <row r="89" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3323,9 +3849,9 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
-    </row>
-    <row r="90" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="90" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3353,9 +3879,9 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
-    </row>
-    <row r="91" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="AC90" s="2"/>
+    </row>
+    <row r="91" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3383,9 +3909,9 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
-    </row>
-    <row r="92" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="AC91" s="2"/>
+    </row>
+    <row r="92" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3413,9 +3939,9 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
-    </row>
-    <row r="93" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="AC92" s="2"/>
+    </row>
+    <row r="93" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3443,9 +3969,9 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
-    </row>
-    <row r="94" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="AC93" s="2"/>
+    </row>
+    <row r="94" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3473,9 +3999,9 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
-    </row>
-    <row r="95" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="AC94" s="2"/>
+    </row>
+    <row r="95" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3503,9 +4029,9 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
-    </row>
-    <row r="96" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="AC95" s="2"/>
+    </row>
+    <row r="96" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3533,9 +4059,9 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
-    </row>
-    <row r="97" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="AC96" s="2"/>
+    </row>
+    <row r="97" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3563,9 +4089,9 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
-    </row>
-    <row r="98" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="AC97" s="2"/>
+    </row>
+    <row r="98" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3593,9 +4119,9 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
-    </row>
-    <row r="99" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="AC98" s="2"/>
+    </row>
+    <row r="99" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3623,9 +4149,9 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
-    </row>
-    <row r="100" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="AC99" s="2"/>
+    </row>
+    <row r="100" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3653,9 +4179,9 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
-    </row>
-    <row r="101" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="AC100" s="2"/>
+    </row>
+    <row r="101" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3683,9 +4209,9 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
-    </row>
-    <row r="102" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="AC101" s="2"/>
+    </row>
+    <row r="102" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3713,9 +4239,9 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
-    </row>
-    <row r="103" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="AC102" s="2"/>
+    </row>
+    <row r="103" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3743,9 +4269,9 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
-    </row>
-    <row r="104" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
+      <c r="AC103" s="2"/>
+    </row>
+    <row r="104" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3773,9 +4299,9 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
-    </row>
-    <row r="105" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
+      <c r="AC104" s="2"/>
+    </row>
+    <row r="105" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3803,9 +4329,9 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
-    </row>
-    <row r="106" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
+      <c r="AC105" s="2"/>
+    </row>
+    <row r="106" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3833,9 +4359,9 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
-    </row>
-    <row r="107" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
+      <c r="AC106" s="2"/>
+    </row>
+    <row r="107" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3863,9 +4389,9 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
-    </row>
-    <row r="108" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="AC107" s="2"/>
+    </row>
+    <row r="108" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3893,9 +4419,9 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
-    </row>
-    <row r="109" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
+      <c r="AC108" s="2"/>
+    </row>
+    <row r="109" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3923,9 +4449,9 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
-    </row>
-    <row r="110" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3953,9 +4479,9 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
-    </row>
-    <row r="111" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
+      <c r="AC110" s="2"/>
+    </row>
+    <row r="111" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3983,9 +4509,9 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
-    </row>
-    <row r="112" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
+      <c r="AC111" s="2"/>
+    </row>
+    <row r="112" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4013,9 +4539,9 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
-    </row>
-    <row r="113" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
+      <c r="AC112" s="2"/>
+    </row>
+    <row r="113" spans="2:29" ht="18" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4043,11 +4569,91 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+    </row>
+    <row r="114" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+    </row>
+    <row r="115" spans="2:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B5710F-91DB-445A-9C0B-D03DEE536C8C}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjetoPlanilhaFinanceira.xlsx
+++ b/ProjetoPlanilhaFinanceira.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FelipePC\Documents\CursoExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\FelipePC\Documents\Udemy-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE795A-2FD2-4097-9057-F7E3AD128EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CEC876-D050-4FB9-82D8-C0B1DC34B82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D65208F-E365-4C34-AE49-52EDE92E9B96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{6D65208F-E365-4C34-AE49-52EDE92E9B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluxo Anual" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>FLUXO ANUAL</t>
   </si>
@@ -156,6 +156,63 @@
   </si>
   <si>
     <t>Despesas Não Essenciais(R$)</t>
+  </si>
+  <si>
+    <t>CARTÃO DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>JANEIRO</t>
+  </si>
+  <si>
+    <t>FEVEREIRO</t>
+  </si>
+  <si>
+    <t>MARÇO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>JULHO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>SETEMBRO</t>
+  </si>
+  <si>
+    <t>OUTUBRO</t>
+  </si>
+  <si>
+    <t>NOVEMBRO</t>
+  </si>
+  <si>
+    <t>DEZEMBRO</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR(R$)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>MC Donalds</t>
+  </si>
+  <si>
+    <t>Riachuelo</t>
+  </si>
+  <si>
+    <t>Netshoes</t>
   </si>
 </sst>
 </file>
@@ -165,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +268,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +315,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -251,12 +341,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,12 +395,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -565,23 +712,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14547</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>473325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>369525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6AE98F-2D9C-B413-C97C-3CF30183B13C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E31462-5712-56F0-0DFD-53B9C89C446B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,10 +736,22 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -603,8 +761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2438400" cy="1729047"/>
+          <a:off x="723900" y="9525"/>
+          <a:ext cx="540000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,24 +773,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>148</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124705</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>668575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>360000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Site Nubank"/>
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85212E3-0605-C10E-0142-DBB9BF4A2F0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C44B0C4-F0B2-B66C-982F-5892714C3B9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -640,8 +797,8 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -651,13 +808,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="26526" t="27215" r="26789" b="23648"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438548" y="0"/>
-          <a:ext cx="2562957" cy="1514475"/>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="640000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +1129,7 @@
   </sheetPr>
   <dimension ref="B1:AC115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -984,21 +1142,21 @@
   <sheetData>
     <row r="1" spans="2:29" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1020,40 +1178,40 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="2"/>
@@ -4645,15 +4803,747 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="14"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="16">
+        <v>35</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="18">
+        <v>150</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="16">
+        <v>60</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="18"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="18"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="18"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="16"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="16"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="22">
+        <f>SUM(B4:B21)</f>
+        <v>245</v>
+      </c>
+      <c r="D22" s="22">
+        <f t="shared" ref="D22:X22" si="0">SUM(D4:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>